--- a/done.xlsx
+++ b/done.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26408"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac HD/Users/kristoffer/Dropbox/UC Davis/Work With Santiago/Github/formantTracking/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="26760" windowHeight="23000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -219,9 +229,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -254,9 +264,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -463,16 +473,16 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="1" max="3" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -486,7 +496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>14</v>
       </c>
@@ -497,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>15</v>
       </c>
@@ -508,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -522,7 +532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>17</v>
       </c>
@@ -539,7 +549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>18</v>
       </c>
@@ -556,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>19</v>
       </c>
@@ -573,7 +583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>23</v>
       </c>
@@ -590,7 +600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>24</v>
       </c>
@@ -601,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>26</v>
       </c>
@@ -612,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>27</v>
       </c>
@@ -623,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>29</v>
       </c>
@@ -634,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>32</v>
       </c>
@@ -645,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>34</v>
       </c>
@@ -656,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>35</v>
       </c>
@@ -667,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>36</v>
       </c>
@@ -678,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -689,7 +699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>12</v>
       </c>
@@ -700,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>39</v>
       </c>
@@ -711,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44</v>
       </c>
@@ -722,7 +732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>52</v>
       </c>
@@ -733,7 +743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>56</v>
       </c>
@@ -744,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>60</v>
       </c>
@@ -755,7 +765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>65</v>
       </c>
@@ -766,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>69</v>
       </c>
@@ -777,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>74</v>
       </c>
@@ -788,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>79</v>
       </c>
@@ -799,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>84</v>
       </c>
@@ -810,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>88</v>
       </c>
@@ -821,7 +831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>93</v>
       </c>
@@ -832,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>21</v>
       </c>
@@ -840,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45</v>
       </c>
@@ -848,7 +858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>63</v>
       </c>
@@ -856,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>6</v>
       </c>
@@ -867,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -878,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>40</v>
       </c>
@@ -889,7 +899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>47</v>
       </c>
@@ -900,7 +910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>53</v>
       </c>
@@ -911,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>57</v>
       </c>
@@ -922,7 +932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>61</v>
       </c>
@@ -933,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>66</v>
       </c>
@@ -944,7 +954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>70</v>
       </c>
@@ -955,7 +965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>75</v>
       </c>
@@ -966,7 +976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>80</v>
       </c>
@@ -977,7 +987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>85</v>
       </c>
@@ -988,7 +998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>90</v>
       </c>
@@ -999,7 +1009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>96</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -1018,7 +1028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>25</v>
       </c>
@@ -1026,7 +1036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -1034,7 +1044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>89</v>
       </c>
@@ -1042,18 +1052,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>4</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
       </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
       <c r="D52" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>11</v>
       </c>
@@ -1064,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>38</v>
       </c>
@@ -1075,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43</v>
       </c>
@@ -1086,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -1097,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -1108,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>59</v>
       </c>
@@ -1119,7 +1132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>64</v>
       </c>
@@ -1130,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>68</v>
       </c>
@@ -1141,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>72</v>
       </c>
@@ -1152,7 +1165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>78</v>
       </c>
@@ -1163,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>83</v>
       </c>
@@ -1174,7 +1187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>87</v>
       </c>
@@ -1185,7 +1198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>92</v>
       </c>
@@ -1196,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>9</v>
       </c>
@@ -1204,7 +1217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>41</v>
       </c>
@@ -1212,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>49</v>
       </c>
@@ -1220,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>3</v>
       </c>
@@ -1231,7 +1244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>7</v>
       </c>
@@ -1242,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>37</v>
       </c>
@@ -1253,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>42</v>
       </c>
@@ -1264,7 +1277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>50</v>
       </c>
@@ -1275,7 +1288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>54</v>
       </c>
@@ -1286,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>58</v>
       </c>
@@ -1297,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>62</v>
       </c>
@@ -1308,7 +1321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>67</v>
       </c>
@@ -1319,7 +1332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>71</v>
       </c>
@@ -1330,7 +1343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>76</v>
       </c>
@@ -1341,7 +1354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>82</v>
       </c>
@@ -1352,7 +1365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>86</v>
       </c>
@@ -1363,7 +1376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>91</v>
       </c>
@@ -1374,7 +1387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>33</v>
       </c>
@@ -1382,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>48</v>
       </c>
@@ -1390,7 +1403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>94</v>
       </c>
@@ -1398,13 +1411,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D88" s="7"/>
     </row>
   </sheetData>

--- a/done.xlsx
+++ b/done.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26408"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac HD/Users/kristoffer/Dropbox/UC Davis/Work With Santiago/Github/formantTracking/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="26760" windowHeight="23000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="14">
   <si>
     <t>txt</t>
   </si>
@@ -64,11 +54,14 @@
   <si>
     <t>who is assigned with aligning it</t>
   </si>
+  <si>
+    <t>requires entirely new transcript</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,9 +222,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -259,14 +252,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -294,6 +304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,17 +499,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="2"/>
-    <col min="7" max="7" width="37.1640625" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -496,7 +523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>14</v>
       </c>
@@ -507,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>15</v>
       </c>
@@ -518,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -532,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>17</v>
       </c>
@@ -549,7 +576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>18</v>
       </c>
@@ -566,7 +593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>19</v>
       </c>
@@ -583,7 +610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>23</v>
       </c>
@@ -600,7 +627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>24</v>
       </c>
@@ -611,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>26</v>
       </c>
@@ -622,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>27</v>
       </c>
@@ -633,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>29</v>
       </c>
@@ -644,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>32</v>
       </c>
@@ -655,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>34</v>
       </c>
@@ -666,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>35</v>
       </c>
@@ -677,7 +704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>36</v>
       </c>
@@ -688,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -699,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>12</v>
       </c>
@@ -710,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>39</v>
       </c>
@@ -721,7 +748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44</v>
       </c>
@@ -732,7 +759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>52</v>
       </c>
@@ -743,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>56</v>
       </c>
@@ -754,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>60</v>
       </c>
@@ -765,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>65</v>
       </c>
@@ -776,7 +803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>69</v>
       </c>
@@ -787,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>74</v>
       </c>
@@ -798,7 +825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>79</v>
       </c>
@@ -809,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>84</v>
       </c>
@@ -820,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>88</v>
       </c>
@@ -831,7 +858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>93</v>
       </c>
@@ -842,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>21</v>
       </c>
@@ -850,7 +877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45</v>
       </c>
@@ -858,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>63</v>
       </c>
@@ -866,7 +893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>6</v>
       </c>
@@ -877,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -888,7 +915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>40</v>
       </c>
@@ -899,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>47</v>
       </c>
@@ -910,7 +937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>53</v>
       </c>
@@ -921,7 +948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>57</v>
       </c>
@@ -932,7 +959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>61</v>
       </c>
@@ -943,7 +970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>66</v>
       </c>
@@ -954,7 +981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>70</v>
       </c>
@@ -965,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>75</v>
       </c>
@@ -976,7 +1003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>80</v>
       </c>
@@ -987,7 +1014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>85</v>
       </c>
@@ -998,7 +1025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>90</v>
       </c>
@@ -1009,7 +1036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>96</v>
       </c>
@@ -1020,7 +1047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -1028,7 +1055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>25</v>
       </c>
@@ -1036,7 +1063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -1044,7 +1071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>89</v>
       </c>
@@ -1052,21 +1079,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>4</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
       <c r="D52" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>11</v>
       </c>
@@ -1077,7 +1101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>38</v>
       </c>
@@ -1088,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43</v>
       </c>
@@ -1099,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -1110,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -1121,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>59</v>
       </c>
@@ -1132,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>64</v>
       </c>
@@ -1143,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>68</v>
       </c>
@@ -1154,7 +1178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>72</v>
       </c>
@@ -1165,7 +1189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>78</v>
       </c>
@@ -1176,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>83</v>
       </c>
@@ -1187,7 +1211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>87</v>
       </c>
@@ -1198,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>92</v>
       </c>
@@ -1209,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>9</v>
       </c>
@@ -1217,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>41</v>
       </c>
@@ -1225,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>49</v>
       </c>
@@ -1233,191 +1257,245 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>3</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
       </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
       <c r="D69" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>7</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
       </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
       <c r="D70" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>37</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
       </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
       <c r="D71" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
       </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
       <c r="D72" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>50</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
       </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
       <c r="D73" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>54</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
       <c r="D74" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>58</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
       </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
       <c r="D75" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>62</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
       </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
       <c r="D76" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>67</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
       </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
       <c r="D77" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>71</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
       </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
       <c r="D78" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>76</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
       </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
       <c r="D79" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>82</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
       </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
       <c r="D80" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>86</v>
       </c>
       <c r="B81" s="2">
         <v>1</v>
       </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
       <c r="D81" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>91</v>
       </c>
       <c r="B82" s="2">
         <v>1</v>
       </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
       <c r="D82" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>33</v>
       </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>48</v>
       </c>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
       <c r="D84" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>94</v>
       </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
       <c r="D85" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D88" s="7"/>
     </row>
   </sheetData>

--- a/done.xlsx
+++ b/done.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac HD/Users/kristoffer/Dropbox/UC Davis/Work With Santiago/Github/formantTracking/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-35780" yWindow="2000" windowWidth="24340" windowHeight="20020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,9 +235,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -252,31 +265,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -304,23 +300,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,17 +478,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="1" max="3" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -523,7 +502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>14</v>
       </c>
@@ -534,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>15</v>
       </c>
@@ -545,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>16</v>
       </c>
@@ -559,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>17</v>
       </c>
@@ -576,7 +555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>18</v>
       </c>
@@ -593,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>19</v>
       </c>
@@ -610,7 +589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>23</v>
       </c>
@@ -627,7 +606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>24</v>
       </c>
@@ -638,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>26</v>
       </c>
@@ -649,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>27</v>
       </c>
@@ -660,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>29</v>
       </c>
@@ -671,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>32</v>
       </c>
@@ -682,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>34</v>
       </c>
@@ -693,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>35</v>
       </c>
@@ -704,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>36</v>
       </c>
@@ -715,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -726,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>12</v>
       </c>
@@ -737,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>39</v>
       </c>
@@ -748,7 +727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44</v>
       </c>
@@ -759,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>52</v>
       </c>
@@ -770,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>56</v>
       </c>
@@ -781,7 +760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>60</v>
       </c>
@@ -792,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>65</v>
       </c>
@@ -803,7 +782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>69</v>
       </c>
@@ -814,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>74</v>
       </c>
@@ -825,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>79</v>
       </c>
@@ -836,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>84</v>
       </c>
@@ -847,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>88</v>
       </c>
@@ -858,7 +837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>93</v>
       </c>
@@ -869,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>21</v>
       </c>
@@ -877,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45</v>
       </c>
@@ -885,7 +864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>63</v>
       </c>
@@ -893,7 +872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>6</v>
       </c>
@@ -904,7 +883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>20</v>
       </c>
@@ -915,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>40</v>
       </c>
@@ -926,7 +905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>47</v>
       </c>
@@ -937,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>53</v>
       </c>
@@ -948,7 +927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>57</v>
       </c>
@@ -959,7 +938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>61</v>
       </c>
@@ -970,7 +949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>66</v>
       </c>
@@ -981,7 +960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>70</v>
       </c>
@@ -992,7 +971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>75</v>
       </c>
@@ -1003,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>80</v>
       </c>
@@ -1014,7 +993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>85</v>
       </c>
@@ -1025,7 +1004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>90</v>
       </c>
@@ -1036,7 +1015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>96</v>
       </c>
@@ -1047,7 +1026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -1055,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>25</v>
       </c>
@@ -1063,7 +1042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -1071,7 +1050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>89</v>
       </c>
@@ -1079,185 +1058,245 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>4</v>
       </c>
       <c r="B52" s="2">
         <v>1</v>
       </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
       <c r="D52" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>11</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
       </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
       <c r="D53" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>38</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
       </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
       <c r="D54" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
       </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
       <c r="D55" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>51</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
       </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
       <c r="D56" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>1</v>
       </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
       <c r="D57" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>59</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
       </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
       <c r="D58" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>64</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
       </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
       <c r="D59" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>68</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
       </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
       <c r="D60" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>72</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
       </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
       <c r="D61" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>78</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
       </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
       <c r="D62" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>83</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
       </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
       <c r="D63" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>87</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
       <c r="D64" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>92</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
       </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
       <c r="D65" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>9</v>
       </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
       <c r="D66" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>41</v>
       </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
       <c r="D67" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>49</v>
       </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
       <c r="D68" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>3</v>
       </c>
@@ -1274,7 +1313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>7</v>
       </c>
@@ -1288,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>37</v>
       </c>
@@ -1302,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>42</v>
       </c>
@@ -1316,7 +1355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>50</v>
       </c>
@@ -1330,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>54</v>
       </c>
@@ -1344,7 +1383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>58</v>
       </c>
@@ -1358,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>62</v>
       </c>
@@ -1372,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>67</v>
       </c>
@@ -1386,7 +1425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>71</v>
       </c>
@@ -1400,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>76</v>
       </c>
@@ -1414,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>82</v>
       </c>
@@ -1428,7 +1467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>86</v>
       </c>
@@ -1442,7 +1481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>91</v>
       </c>
@@ -1456,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>33</v>
       </c>
@@ -1467,7 +1506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>48</v>
       </c>
@@ -1478,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>94</v>
       </c>
@@ -1489,13 +1528,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D88" s="7"/>
     </row>
   </sheetData>
